--- a/tl/S00101.MES.BIN.xlsx
+++ b/tl/S00101.MES.BIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1C95B4-B92E-4451-A9BB-BAB0D4FEB5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781FFEF-BA76-47A7-8A55-D89B5A178A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="45">
   <si>
     <t>Status</t>
   </si>
@@ -150,12 +150,6 @@
   </si>
   <si>
     <t>Alright, let's go to school!</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1163,70 +1157,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tl/S00101.MES.BIN.xlsx
+++ b/tl/S00101.MES.BIN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781FFEF-BA76-47A7-8A55-D89B5A178A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF21BC-C79A-4E68-B379-0D5C87C99261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="18150" windowWidth="55185" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00101.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="61">
   <si>
     <t>Status</t>
   </si>
@@ -50,106 +50,154 @@
     <t>1</t>
   </si>
   <si>
+    <t>Beep beep beep beep beep…</t>
+  </si>
+  <si>
     <t>Pipipipi...</t>
   </si>
   <si>
-    <t>This phrase is spoken by someone who is having the same recurring dream and is feeling anxious about it. They shake their head in frustration, feeling blue from worrying about the dream and their lack of control over it. They also recognize that their friend, Yuki, has been with them all this time even if they haven't been able to meet up recently, and this reassures them.</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>Nn-….</t>
+  </si>
+  <si>
     <t>Nn...</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>Click…</t>
+  </si>
+  <si>
     <t>Kachh...</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>Dream…</t>
+  </si>
+  <si>
     <t>Dream...</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>I had that dream again…</t>
+  </si>
+  <si>
     <t>I had that dream again...</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>I didn't mean to think about it so seriously, but if I keep having the same dream over and over, I guess I'm pretty anxious…</t>
+  </si>
+  <si>
     <t>I didn't think that seriously about it, but if I keep having the same dream over and over, it must mean I'm quite anxious...</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
+    <t>Trembling, I shake my head.</t>
+  </si>
+  <si>
     <t>I shake my head, feeling blue, by myself in the morning.</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
+    <t>…What am I getting all down about by myself for this early in the morning?</t>
+  </si>
+  <si>
     <t>What am I doing, worrying like this?</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
+    <t>Even though I haven't seen her recently, Yuki is always there for me.</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>Besides, whenever I turn on the TV, she is always singing there.</t>
+  </si>
+  <si>
     <t>Yuki has been with me all this time, even though we haven't been able to meet up recently.</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
+    <t>It's been a year since then, and Yuki's popularity has risen more than I ever imagined. Her image appears frequently on TV and in music stores.</t>
+  </si>
+  <si>
     <t>Whenever I turn on the TV, there's Yuki singing. Her popularity has risen more than I thought it would in the last year, and her face can often be seen on TV and in music shop windows.</t>
   </si>
   <si>
-    <t>This phrase is spoken by someone who notices how popular their friend, Yuki, has become over the past year. They see her face everywhere, whether it's on TV or in music shop windows, and they can't help but feel proud of their friend's success. Even though they're not able to meet up with Yuki often, they recognize that she's still there with them in some form, which reassures them and helps them to feel less lonely. They decide to stop worrying and jump out of bed with energy, determined to make the most of the day ahead.</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
+    <t>Even when I walk around town, I see her figure in some form.</t>
+  </si>
+  <si>
     <t>Even when I'm walking around town, I can see her in some form or another.</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
+    <t>In videos, sounds, posters-, etc….</t>
+  </si>
+  <si>
     <t>Whether it's in videos, sound, posters, etc.</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
+    <t>That's why I shouldn't feel lonely at all….</t>
+  </si>
+  <si>
     <t>So there's no way I should be feeling lonely...</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
+    <t>I get out of bed vigorously.</t>
+  </si>
+  <si>
     <t>I jump off the bed with energy.</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
+    <t>It's no good thinking about this kind of stuff so early in the morning.</t>
+  </si>
+  <si>
     <t>Thinking about these things in the morning is pointless.</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>Alright, let's go to school…!</t>
+  </si>
+  <si>
     <t>Alright, let's go to school!</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -569,9 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -630,13 +680,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -662,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>9</v>
@@ -682,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -694,10 +744,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -714,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -726,10 +776,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>9</v>
@@ -746,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -758,10 +808,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -778,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -790,10 +840,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -810,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -822,10 +872,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -842,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -854,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -874,7 +924,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -886,10 +936,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -906,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -918,10 +968,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -938,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -950,13 +1000,13 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -970,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -982,10 +1032,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -1002,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1014,10 +1064,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1034,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1046,10 +1096,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1066,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1078,10 +1128,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -1098,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -1110,10 +1160,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -1130,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1142,10 +1192,10 @@
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -1154,6 +1204,38 @@
         <v>9</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
